--- a/medicine/Psychotrope/Karlsberg/Karlsberg.xlsx
+++ b/medicine/Psychotrope/Karlsberg/Karlsberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Karlsberg est une entreprise brassicole allemande.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brasserie Karlsberg est fondée en 1878 par Christian Weber à Hombourg. L'entreprise est restée familiale et est détenue aujourd'hui par Richard Weber, l'arrière-petit-fils du fondateur.
 En 1989, Karlsberg rachète la Brasserie Licorne à Saverne qui produit notamment les bières Licorne, Fritz Bräu et Burgbräu. Karlsberg possédait également la Brasserie Amos à Metz acquise en 1988 et fermée en 1993.
@@ -546,7 +560,9 @@
           <t>Bières et boissons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bock
 Brauerlimo
